--- a/WorkDiary/中原银行微服务平台/201801015-20181021.xlsx
+++ b/WorkDiary/中原银行微服务平台/201801015-20181021.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>工作</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,16 +56,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>遗留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、springcloud ribbon相关笔记整理 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、利用apollo监听动态重写配置文件
+2、分析在feign+sleuth+zipkin架构中，网络延时和服务端宕机导致的重发问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查看源码理解推送span到zipkin的机制
+2、找出在没有重发的基础上，为什么会出现3个不同的spanID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、编写出现三个不同spanID的问题的分析文档
+2、寻找sleuth埋点方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>springcloud ribbon配置实时更新，配置中心为apollo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遗留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、springcloud ribbon相关笔记整理 
-2、clientName列表获取机制优化</t>
+    <t>ribbon配置实时更新，配置中心为apollo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、写入配置文件部分代码待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过抓包、源码分析等测试方法，确定并没有重发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +506,10 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -528,17 +554,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
@@ -548,21 +582,25 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
